--- a/data/income_statement/3digits/total/289_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/289_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>289-Manufacture of other special-purpose machinery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>289-Manufacture of other special-purpose machinery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4520899.86229</v>
+        <v>4520899.862290001</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>5418740.46925</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7757505.910530001</v>
+        <v>7757737.283140001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8684969.213090001</v>
+        <v>8686775.01668</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9807339.901360001</v>
+        <v>9808384.925949998</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11108030.04323</v>
+        <v>11148141.14653</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12307080.87632</v>
+        <v>12537377.64792</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>13438970.31086</v>
+        <v>13488927.6975</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>17656390.29361</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25408336.69243</v>
+        <v>25459713.86666</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26731440.12968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27035634.40037</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>36041886.471</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3227109.954200001</v>
+        <v>3227109.9542</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4127279.09052</v>
+        <v>4127279.090520001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5599981.27665</v>
+        <v>5600212.64926</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6320813.95789</v>
+        <v>6322449.00313</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7194906.218719999</v>
+        <v>7195951.24331</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8237860.472560001</v>
+        <v>8263499.46584</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9277072.381290002</v>
+        <v>9432469.45149</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10246502.78777</v>
+        <v>10290178.91554</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>13180452.54899</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>18138010.62013</v>
+        <v>18185122.46939</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>18137684.52784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>18323430.18558</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>25586556.466</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1242471.11302</v>
@@ -1037,37 +953,42 @@
         <v>2074867.0551</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2271710.00679</v>
+        <v>2271878.03223</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>2516948.50163</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2746525.72303</v>
+        <v>2760755.24657</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2872188.2752</v>
+        <v>2944440.90771</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3009640.02459</v>
+        <v>3015528.0163</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>4250439.78912</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6932011.86907</v>
+        <v>6935985.59519</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>8220968.62474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8337562.97323</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9956661.352</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>51318.79506999999</v>
+        <v>51318.79507000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>65597.65296000001</v>
@@ -1076,34 +997,39 @@
         <v>82657.57878</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>92445.24841</v>
+        <v>92447.98132000001</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>95485.18100999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>123643.84764</v>
+        <v>123886.43412</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>157820.21983</v>
+        <v>160467.28872</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>182827.4985</v>
+        <v>183220.76566</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>225497.9555</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>338314.20323</v>
+        <v>338605.8020800001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>372786.9771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>374641.24156</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>498668.653</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>61174.75433</v>
@@ -1115,73 +1041,83 @@
         <v>112030.65419</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>138271.34985</v>
+        <v>138365.24063</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>133406.95697</v>
+        <v>133411.27612</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>193846.22218</v>
+        <v>194104.68032</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>194873.08635</v>
+        <v>203240.24823</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>248525.01339</v>
+        <v>248929.82255</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>297992.46688</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>462537.72866</v>
+        <v>462548.66846</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>439814.9229600001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>447263.16068</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1505608.469</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>41884.44257</v>
+        <v>41884.44256999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>46287.23875</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>79140.12761</v>
+        <v>79140.12760999998</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>81707.90109999999</v>
+        <v>81778.78509999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>79646.16035999999</v>
+        <v>79647.57485999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>146504.41025</v>
+        <v>146726.24927</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>138010.49139</v>
+        <v>146195.14505</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>194883.02232</v>
+        <v>195155.23282</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>229022.61254</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>343266.75506</v>
+        <v>343276.77186</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>333083.74687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>340381.03275</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1278278.167</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>14584.57127</v>
@@ -1193,37 +1129,42 @@
         <v>25916.55073</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>46169.34463</v>
+        <v>46192.35141</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>44280.91375</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>39184.80852</v>
+        <v>39217.30564</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>33675.74049</v>
+        <v>33789.21837</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>40421.5267</v>
+        <v>40550.53676</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>50898.26882</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>58449.37802</v>
+        <v>58450.30102000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>64134.58134999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>64231.36887000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>157385.188</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4705.740489999999</v>
+        <v>4705.74049</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>3388.24989</v>
@@ -1235,70 +1176,80 @@
         <v>10394.10412</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>9479.88286</v>
+        <v>9482.78751</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8157.00341</v>
+        <v>8161.125410000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>23186.85447</v>
+        <v>23255.88481</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>13220.46437</v>
+        <v>13224.05297</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>18071.58552</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>60821.59558</v>
+        <v>60821.59558000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>42596.59474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>42650.75906</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>69945.114</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4459725.10796</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5349084.98089</v>
+        <v>5349084.980889999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7645475.25634</v>
+        <v>7645706.62895</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8546697.86324</v>
+        <v>8548409.77605</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9673932.944389999</v>
+        <v>9674973.64983</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10914183.82105</v>
+        <v>10954036.46621</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12112207.78997</v>
+        <v>12334137.39969</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>13190445.29747</v>
+        <v>13239997.87495</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>17358397.82673</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24945798.96377</v>
+        <v>24997165.1982</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>26291625.20672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26588371.23969</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>34536278.002</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3534046.42413</v>
@@ -1307,37 +1258,42 @@
         <v>4288591.61184</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6085175.18203</v>
+        <v>6085382.06485</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6877202.846309999</v>
+        <v>6878788.67972</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7676687.277790001</v>
+        <v>7677604.03914</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8768512.866770001</v>
+        <v>8800169.94227</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9590221.65377</v>
+        <v>9765376.06024</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10377835.12406</v>
+        <v>10419544.64973</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>13638155.08541</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19431741.14905</v>
+        <v>19479801.28074</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20399189.6859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20643447.74171</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26745885.217</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2661414.07439</v>
@@ -1349,73 +1305,83 @@
         <v>4576907.807659999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5298389.679799999</v>
+        <v>5299856.48717</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5854838.88581</v>
+        <v>5854838.885810001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6744264.715549999</v>
+        <v>6774260.60672</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7383468.102379999</v>
+        <v>7517308.5452</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7962105.928719999</v>
+        <v>7981774.190919999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>10632558.40868</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>15128288.22785</v>
+        <v>15136515.5509</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>16111194.19283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16329072.28771</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>20483176.091</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>656038.3791600001</v>
+        <v>656038.37916</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>787415.3109</v>
+        <v>787415.3108999999</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>1266675.60208</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1320348.20629</v>
+        <v>1320467.23233</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1486166.0515</v>
+        <v>1487082.81285</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1673333.88437</v>
+        <v>1674973.19292</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1785054.48346</v>
+        <v>1814692.20781</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1938011.99608</v>
+        <v>1960041.88621</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2411008.04293</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3248045.7839</v>
+        <v>3281782.94407</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3426323.16138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3444595.98389</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5074577.512</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>203317.08486</v>
@@ -1424,7 +1390,7 @@
         <v>229237.95402</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>213423.43771</v>
+        <v>213630.32053</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>230991.70849</v>
@@ -1433,28 +1399,33 @@
         <v>307416.25552</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>314681.3045200001</v>
+        <v>314701.2028</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>373785.5753</v>
+        <v>385251.25048</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>423239.80192</v>
+        <v>423251.17526</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>510018.37438</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>949401.4715399999</v>
+        <v>955294.57446</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>777288.12847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>783023.8308999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1049917.162</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>13276.88572</v>
@@ -1472,67 +1443,77 @@
         <v>28266.08496</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>36232.96232999999</v>
+        <v>36234.93983</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>47913.49263</v>
+        <v>48124.05675</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>54477.39734</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>84570.25941999999</v>
+        <v>84570.25942</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>106005.66576</v>
+        <v>106208.21131</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>84384.20322000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>86755.63921000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>138214.452</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>925678.6838299999</v>
+        <v>925678.68383</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>1060493.36905</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1560300.07431</v>
+        <v>1560324.5641</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1669495.01693</v>
+        <v>1669621.09633</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1997245.6666</v>
+        <v>1997369.61069</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2145670.95428</v>
+        <v>2153866.52394</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2521986.1362</v>
+        <v>2568761.33945</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2812610.17341</v>
+        <v>2820453.22522</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3720242.74132</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5514057.814719999</v>
+        <v>5517363.91746</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5892435.520819999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5944923.49798</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7790392.785</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>552464.3155</v>
@@ -1541,37 +1522,42 @@
         <v>652425.9358199999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>857147.9877000001</v>
+        <v>857175.0096900001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>989022.30906</v>
+        <v>989136.4458</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1116326.41711</v>
+        <v>1116398.6179</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1330732.96368</v>
+        <v>1334943.17419</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1461647.33375</v>
+        <v>1487729.97104</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1680224.54226</v>
+        <v>1686497.77812</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1924187.52727</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2646664.40692</v>
+        <v>2655304.94441</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3085051.263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3115631.33129</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3406239.984</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>11351.32822</v>
@@ -1592,25 +1578,30 @@
         <v>38316.82482</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>37560.42108</v>
+        <v>39125.76265999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>50599.14513</v>
+        <v>50643.28267999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>51724.87817</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>100347.75132</v>
+        <v>100548.07159</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>132510.35171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>133153.49898</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>169468.771</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>171914.85237</v>
@@ -1622,34 +1613,39 @@
         <v>278849.16364</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>321478.94163</v>
+        <v>321517.47188</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>362928.37878</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>466765.3829199999</v>
+        <v>467234.2378999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>478795.69122</v>
+        <v>486618.87489</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>560591.57634</v>
+        <v>562702.95248</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>675105.2133499999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1015224.36834</v>
+        <v>1016121.61963</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1151354.40084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1156447.92262</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1131052.131</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>369198.13491</v>
@@ -1658,76 +1654,86 @@
         <v>436538.43205</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>555261.02331</v>
+        <v>555288.0453</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>643100.11631</v>
+        <v>643175.7228</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>720889.89699</v>
+        <v>720962.09778</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>825650.7559399999</v>
+        <v>829392.11147</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>945291.2214500001</v>
+        <v>961985.33349</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1069033.82079</v>
+        <v>1073151.54296</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1197357.43575</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1531092.28726</v>
+        <v>1538635.25319</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1801186.51045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1826029.90969</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2105719.082</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>373214.36833</v>
+        <v>373214.3683299999</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>408067.43323</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>703152.08661</v>
+        <v>703149.5544100001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>680472.70787</v>
+        <v>680484.6505300001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>880919.24949</v>
+        <v>880970.9927899999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>814937.9906</v>
+        <v>818923.3497500001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1060338.80245</v>
+        <v>1081031.36841</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1132385.63115</v>
+        <v>1133955.4471</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1796055.21405</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2867393.4078</v>
+        <v>2862058.97305</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2807384.25782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2829292.166689999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4384152.801</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>181930.20846</v>
@@ -1739,34 +1745,39 @@
         <v>349614.57644</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>352191.11185</v>
+        <v>352210.69763</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>480975.2004300001</v>
+        <v>480985.96286</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>450243.15226</v>
+        <v>451533.36133</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>813280.51542</v>
+        <v>826228.5293399999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>836180.1795500001</v>
+        <v>840700.0282899999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1225958.30354</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3478889.4465</v>
+        <v>3482882.73919</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1939751.59375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1953786.10377</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4157618.417</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>14636.82327</v>
@@ -1784,10 +1795,10 @@
         <v>77596.13946999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>70642.87613</v>
+        <v>70642.87612999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>89495.75937999999</v>
+        <v>89615.52989999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>127462.2297</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>130181.12836</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>291141.896</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1088.03384</v>
@@ -1829,7 +1845,7 @@
         <v>158.23755</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>754.2437199999999</v>
+        <v>800.82886</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0.25</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>550.34175</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5662.993</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>15011.45197</v>
@@ -1859,31 +1880,36 @@
         <v>29052.79387</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>23613.9317</v>
+        <v>23621.36012</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>32849.5738</v>
+        <v>32935.49613</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>40184.86443</v>
+        <v>40727.63031</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>49606.46087</v>
+        <v>52665.73856</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>96838.30097999999</v>
+        <v>96838.30098</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>149974.39315</v>
+        <v>149984.99395</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>124922.98094</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>128663.40074</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>136630.055</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1077.53527</v>
@@ -1907,28 +1933,33 @@
         <v>3992.55364</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3781.96346</v>
+        <v>3784.59023</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>6109.343199999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6018.181130000001</v>
+        <v>6018.18113</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7095.09693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3829.83276</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>9596.306</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2454.28511</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>5460.51362</v>
+        <v>5460.513619999999</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>2644.38807</v>
@@ -1943,10 +1974,10 @@
         <v>6786.659009999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7949.886050000001</v>
+        <v>8254.45031</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8861.538050000001</v>
+        <v>8871.538050000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>8316.8226</v>
@@ -1955,13 +1986,18 @@
         <v>8793.65055</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>21334.30273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>21334.88239</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11434.775</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>999.70624</v>
@@ -1970,10 +2006,10 @@
         <v>334.79508</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3976.52942</v>
+        <v>3976.529419999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>782.55151</v>
+        <v>782.68409</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>1138.41527</v>
@@ -1982,10 +2018,10 @@
         <v>1126.3688</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1808.17224</v>
+        <v>1825.89994</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3193.72943</v>
+        <v>3220.08299</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2319.04448</v>
@@ -1994,13 +2030,18 @@
         <v>6372.85528</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7166.15833</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7173.685820000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>23360.623</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>106520.70828</v>
@@ -2012,43 +2053,48 @@
         <v>206770.31088</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>212472.20453</v>
+        <v>212491.65773</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>313595.17962</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>265985.21097</v>
+        <v>266998.87851</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>608391.19328</v>
+        <v>619699.67877</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>562223.61505</v>
+        <v>563387.0231100001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>857033.51249</v>
+        <v>857033.5124899999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2994389.27001</v>
+        <v>2996234.45128</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1479739.67429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1492813.31053</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3482516.226</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>3863.69523</v>
+        <v>3863.695229999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>4786.110039999999</v>
+        <v>4786.11004</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>2987.723320000001</v>
+        <v>2987.72332</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>1567.61274</v>
@@ -2060,7 +2106,7 @@
         <v>8071.157939999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>7627.73538</v>
+        <v>7635.68731</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>12823.28827</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>17855.27794</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>10391.525</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>280.02649</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.02085</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>35997.94276000001</v>
@@ -2132,31 +2188,36 @@
         <v>41148.55567</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>51489.94175</v>
+        <v>51493.27576</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>56831.72067</v>
+        <v>57022.33987</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>53640.20331</v>
+        <v>54286.95145</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>67339.77007</v>
+        <v>67551.36759000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>81134.72835999998</v>
+        <v>81134.72835999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>123460.3487</v>
+        <v>125597.85932</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>150906.61163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>151384.22263</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>186884.018</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>150049.12689</v>
@@ -2168,40 +2229,45 @@
         <v>277101.94384</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>217198.53841</v>
+        <v>217230.35095</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>377405.8295599999</v>
+        <v>377405.82956</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>330170.60298</v>
+        <v>330981.1415</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>657918.46139</v>
+        <v>671444.4884500001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>645821.1786699999</v>
+        <v>649985.3612200001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1038435.31823</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3211437.680089999</v>
+        <v>3215034.28357</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1575246.96337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1585656.73871</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3165474.926</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>9626.06532</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6748.32114</v>
+        <v>6748.321140000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>10851.16985</v>
@@ -2213,13 +2279,13 @@
         <v>8174.15492</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9099.37868</v>
+        <v>9100.23969</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8390.914489999999</v>
+        <v>8659.262119999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>13681.97987</v>
+        <v>13698.98723</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>23479.16315</v>
@@ -2228,13 +2294,18 @@
         <v>27413.91248</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>25475.40714</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>25495.85446</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>39857.919</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>19170.29257</v>
@@ -2255,7 +2326,7 @@
         <v>27225.84348</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30691.52594</v>
+        <v>31104.40663</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>27707.92225</v>
@@ -2264,16 +2335,21 @@
         <v>72368.66267000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>79823.55322</v>
+        <v>79889.47121999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>51865.59340000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>52677.5845</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>55538.795</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>129.04155</v>
@@ -2306,13 +2382,18 @@
         <v>264.4413</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2647.29225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2473.75081</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>8129.825</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>107172.68421</v>
@@ -2324,40 +2405,45 @@
         <v>229623.37373</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>165610.62855</v>
+        <v>165642.44109</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>316487.68125</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>269471.2154700001</v>
+        <v>270117.89698</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>595667.2447200001</v>
+        <v>607684.3194699999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>552059.86513</v>
+        <v>556161.64325</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>897518.6126400001</v>
+        <v>897518.6126399999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3038106.93107</v>
+        <v>3041513.46434</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1420805.71111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1429539.52585</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2981907.26</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4277.50621</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>4368.31933</v>
+        <v>4368.319329999999</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>2150.2479</v>
@@ -2372,7 +2458,7 @@
         <v>7730.95186</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>9722.446980000001</v>
+        <v>9735.611200000001</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>10466.43091</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>14148.95523</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>6665.256</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>546.5212599999999</v>
+        <v>546.52126</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>87.35597</v>
@@ -2411,7 +2502,7 @@
         <v>2.0261</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>16.629</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0.04411</v>
@@ -2423,13 +2514,18 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>675.3458499999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>9127.01577</v>
@@ -2447,28 +2543,33 @@
         <v>22635.78894</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16168.81842</v>
+        <v>16331.81442</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>12666.59841</v>
+        <v>13464.52918</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>41694.59303</v>
+        <v>41739.9901</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>38758.03014</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>56648.02169000001</v>
+        <v>56772.1739</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>59628.65839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>61321.06786</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>73375.871</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>109802.42289</v>
@@ -2480,34 +2581,39 @@
         <v>277460.21813</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>208740.603</v>
+        <v>208740.62923</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>185105.37418</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>178271.11284</v>
+        <v>178452.89409</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>236673.66761</v>
+        <v>242008.64068</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>274685.93239</v>
+        <v>275449.08827</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>384218.04852</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>666141.0573400001</v>
+        <v>667440.35507</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>700518.98706</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>711168.3756800001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>827910.406</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>103392.98716</v>
@@ -2519,34 +2625,39 @@
         <v>269573.11186</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>200471.90347</v>
+        <v>200471.9297</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>176125.61382</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>168761.26413</v>
+        <v>168943.04538</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>223302.23162</v>
+        <v>228211.9424</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>260383.06447</v>
+        <v>261131.19179</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>357891.31426</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>624072.8425599999</v>
+        <v>625362.5963099999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>664216.7524400001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>674743.2374100001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>749608.689</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6409.43573</v>
@@ -2555,10 +2666,10 @@
         <v>4244.36147</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>7887.10627</v>
+        <v>7887.106269999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8268.699530000002</v>
+        <v>8268.69953</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>8979.76036</v>
@@ -2567,25 +2678,30 @@
         <v>9509.84871</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>13371.43599</v>
+        <v>13796.69828</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>14302.86792</v>
+        <v>14317.89648</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>26326.73426</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>42068.21478</v>
+        <v>42077.75876</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>36302.23462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>36425.13827</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>78301.717</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>295293.02701</v>
@@ -2594,40 +2710,45 @@
         <v>372104.93577</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>498204.50108</v>
+        <v>498201.96888</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>606724.6783100001</v>
+        <v>606724.36798</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>799383.24618</v>
+        <v>799445.75191</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>756739.42704</v>
+        <v>761022.6754900001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>979027.18887</v>
+        <v>993806.76862</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1048058.69964</v>
+        <v>1049221.0259</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1599360.15084</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2468704.11687</v>
+        <v>2462467.0736</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2471369.90114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2486253.15607</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4548385.886</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>36876.08020999999</v>
+        <v>36876.08021</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>38874.46833</v>
@@ -2636,34 +2757,39 @@
         <v>55936.66515</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>54972.56303</v>
+        <v>55053.70903</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>72363.34631000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>123011.29424</v>
+        <v>123153.54484</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>105635.04907</v>
+        <v>106372.47033</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>128419.9283</v>
+        <v>226919.00388</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>160155.03398</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>172629.78858</v>
+        <v>173260.7997</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>212475.8324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>215282.62515</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>289719.356</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1529.78209</v>
@@ -2684,64 +2810,74 @@
         <v>1174.64643</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>7576.48675</v>
+        <v>7576.486749999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7582.683460000001</v>
+        <v>7582.68346</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1792.52442</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1744.10943</v>
+        <v>1744.80482</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>2660.40309</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>5452.151</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>35346.29812</v>
+        <v>35346.29812000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>36892.00062999999</v>
+        <v>36892.00063</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>51834.93241000001</v>
+        <v>51834.93240999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>53451.61665</v>
+        <v>53532.76265</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>70088.09959</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>121836.64781</v>
+        <v>121978.89841</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>98058.56232000001</v>
+        <v>98795.98358</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>120837.24484</v>
+        <v>219336.32042</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>158362.50956</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>170885.67915</v>
+        <v>171515.99488</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>209815.42931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>212622.22206</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>284267.205</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>164179.18144</v>
@@ -2753,34 +2889,39 @@
         <v>313430.42415</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>57217.41622999999</v>
+        <v>57217.41624</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>63146.35705</v>
+        <v>63146.39046</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>224327.18719</v>
+        <v>224791.61546</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>85931.51757000001</v>
+        <v>87976.45849999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>301857.96198</v>
+        <v>310382.35248</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>126511.22819</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>355418.75012</v>
+        <v>357028.12271</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>173259.23749</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>175470.44667</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>229215.008</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>7422.51269</v>
@@ -2798,10 +2939,10 @@
         <v>3813.31974</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6961.9388</v>
+        <v>6961.938800000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4982.131989999999</v>
+        <v>5029.032480000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>15303.31024</v>
@@ -2810,22 +2951,27 @@
         <v>23813.08634</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>22186.05905</v>
+        <v>22226.1357</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>27113.15893</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>27205.29186</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>27632.743</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>9973.69168</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>8443.821329999999</v>
+        <v>8443.821330000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>9131.440570000001</v>
@@ -2840,25 +2986,30 @@
         <v>15830.07468</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>21753.1884</v>
+        <v>21753.63703</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>18252.64399</v>
+        <v>26333.26868</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>12858.55446</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7293.46021</v>
+        <v>7294.50848</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10091.70984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10150.66874</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7075.904</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>146782.97707</v>
@@ -2870,34 +3021,39 @@
         <v>299393.5435</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>38961.8452</v>
+        <v>38961.84520999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>45967.50726999999</v>
+        <v>45967.54068</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>201535.17371</v>
+        <v>201999.60198</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>59196.19718</v>
+        <v>61193.78898999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>268302.00775</v>
+        <v>268745.77356</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>89839.58739</v>
+        <v>89839.58739000002</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>325939.23086</v>
+        <v>327507.47853</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>136054.36872</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>138114.48607</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>194506.361</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>167989.92578</v>
@@ -2906,37 +3062,42 @@
         <v>320110.81462</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>240710.74208</v>
+        <v>240708.20988</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>604479.82511</v>
+        <v>604560.66077</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>808600.23544</v>
+        <v>808662.70776</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>655423.5340900001</v>
+        <v>659384.60487</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>998730.7203699999</v>
+        <v>1012202.78045</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>874620.6659599999</v>
+        <v>965757.6773</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1633003.95663</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2285915.15533</v>
+        <v>2278699.75059</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2510586.49605</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2526065.33455</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4608890.234</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>63299.33136</v>
@@ -2948,34 +3109,39 @@
         <v>110101.71338</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>113640.31686</v>
+        <v>113647.52225</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>140477.35059</v>
+        <v>140493.82583</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>145651.08571</v>
+        <v>146542.10354</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>169189.96741</v>
+        <v>172777.71232</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>165949.84233</v>
+        <v>171489.29553</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>219917.44304</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>366899.5115499999</v>
+        <v>367288.02405</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>353258.42291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>357538.40464</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>565326.6580000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>104690.59442</v>
@@ -2984,34 +3150,37 @@
         <v>247637.30715</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>130609.0287</v>
+        <v>130606.4965</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>490839.50825</v>
+        <v>490913.13852</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>668122.88485</v>
+        <v>668168.8819299999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>509772.44838</v>
+        <v>512842.5013300001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>829540.7529600001</v>
+        <v>839425.06813</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>708670.8236299999</v>
+        <v>794268.38177</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1413086.51359</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1919015.64378</v>
+        <v>1911411.72654</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2157328.07314</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2168526.92991</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4043563.576</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3301</v>
@@ -3038,34 +3210,37 @@
         <v>3307</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3208</v>
+        <v>3222</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3350</v>
+        <v>3385</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3564</v>
+        <v>3582</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3820</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3737</v>
+        <v>4071</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3866</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4349</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>